--- a/data/data_ananlyse/_buy_fv_3_sold_basic/max_0$$buy$$_buy_fv_3__sold_basic$$.xlsx
+++ b/data/data_ananlyse/_buy_fv_3_sold_basic/max_0$$buy$$_buy_fv_3__sold_basic$$.xlsx
@@ -503,7 +503,7 @@
         <v>20150702</v>
       </c>
       <c r="D6">
-        <v>3315.034187115612</v>
+        <v>3315.034187115611</v>
       </c>
       <c r="E6">
         <v>4287.7344</v>
@@ -523,7 +523,7 @@
         <v>20150709</v>
       </c>
       <c r="D7">
-        <v>4896.068852816546</v>
+        <v>4896.068852816545</v>
       </c>
       <c r="E7">
         <v>3621.6804</v>
@@ -643,7 +643,7 @@
         <v>20150820</v>
       </c>
       <c r="D13">
-        <v>2965.840172821079</v>
+        <v>2965.840172821078</v>
       </c>
       <c r="E13">
         <v>3848.4034</v>
@@ -803,7 +803,7 @@
         <v>20151029</v>
       </c>
       <c r="D21">
-        <v>2820.799644255194</v>
+        <v>2820.799644255193</v>
       </c>
       <c r="E21">
         <v>3539.9777</v>
@@ -823,7 +823,7 @@
         <v>20151105</v>
       </c>
       <c r="D22">
-        <v>2571.515309862089</v>
+        <v>2571.51530986209</v>
       </c>
       <c r="E22">
         <v>3630.7817</v>
@@ -863,7 +863,7 @@
         <v>20151119</v>
       </c>
       <c r="D24">
-        <v>2166.776323810984</v>
+        <v>2166.776323810983</v>
       </c>
       <c r="E24">
         <v>3725.622</v>
@@ -923,7 +923,7 @@
         <v>20151210</v>
       </c>
       <c r="D27">
-        <v>2321.806457255848</v>
+        <v>2321.806457255849</v>
       </c>
       <c r="E27">
         <v>3634.366</v>
@@ -1003,7 +1003,7 @@
         <v>20160107</v>
       </c>
       <c r="D31">
-        <v>2593.45245908046</v>
+        <v>2593.452459080459</v>
       </c>
       <c r="E31">
         <v>3481.1499</v>
@@ -1083,7 +1083,7 @@
         <v>20160204</v>
       </c>
       <c r="D35">
-        <v>3981.986329778157</v>
+        <v>3981.986329778156</v>
       </c>
       <c r="E35">
         <v>2960.3335</v>
@@ -1423,7 +1423,7 @@
         <v>20160616</v>
       </c>
       <c r="D52">
-        <v>2955.440804671615</v>
+        <v>2955.440804671614</v>
       </c>
       <c r="E52">
         <v>3104.3619</v>
@@ -1503,7 +1503,7 @@
         <v>20160714</v>
       </c>
       <c r="D56">
-        <v>2455.217654254319</v>
+        <v>2455.217654254318</v>
       </c>
       <c r="E56">
         <v>3277.4816</v>
@@ -1523,7 +1523,7 @@
         <v>20160721</v>
       </c>
       <c r="D57">
-        <v>2536.908501833932</v>
+        <v>2536.908501833931</v>
       </c>
       <c r="E57">
         <v>3238.3367</v>
@@ -1603,7 +1603,7 @@
         <v>20160818</v>
       </c>
       <c r="D61">
-        <v>2183.174833540749</v>
+        <v>2183.17483354075</v>
       </c>
       <c r="E61">
         <v>3369.9472</v>
@@ -1643,7 +1643,7 @@
         <v>20160901</v>
       </c>
       <c r="D63">
-        <v>2261.678087481352</v>
+        <v>2261.678087481351</v>
       </c>
       <c r="E63">
         <v>3326.7389</v>
@@ -2323,7 +2323,7 @@
         <v>20170518</v>
       </c>
       <c r="D97">
-        <v>2042.450584069972</v>
+        <v>2042.450584069973</v>
       </c>
       <c r="E97">
         <v>3387.6655</v>
@@ -2403,7 +2403,7 @@
         <v>20170615</v>
       </c>
       <c r="D101">
-        <v>1808.165673316157</v>
+        <v>1808.165673316158</v>
       </c>
       <c r="E101">
         <v>3530.7465</v>
@@ -2443,7 +2443,7 @@
         <v>20170629</v>
       </c>
       <c r="D103">
-        <v>1619.842083921244</v>
+        <v>1619.842083921245</v>
       </c>
       <c r="E103">
         <v>3649.2525</v>
@@ -2603,7 +2603,7 @@
         <v>20170824</v>
       </c>
       <c r="D111">
-        <v>1490.443492699217</v>
+        <v>1490.443492699218</v>
       </c>
       <c r="E111">
         <v>3755.8902</v>
@@ -2823,7 +2823,7 @@
         <v>20171116</v>
       </c>
       <c r="D122">
-        <v>1207.192234610608</v>
+        <v>1207.192234610607</v>
       </c>
       <c r="E122">
         <v>4063.4943</v>
@@ -3283,7 +3283,7 @@
         <v>20180510</v>
       </c>
       <c r="D145">
-        <v>1483.82842847877</v>
+        <v>1483.828428478769</v>
       </c>
       <c r="E145">
         <v>3882.8357</v>
@@ -3603,7 +3603,7 @@
         <v>20180830</v>
       </c>
       <c r="D161">
-        <v>2244.737832009655</v>
+        <v>2244.737832009654</v>
       </c>
       <c r="E161">
         <v>3385.8052</v>
@@ -3643,7 +3643,7 @@
         <v>20180913</v>
       </c>
       <c r="D163">
-        <v>2558.822278380977</v>
+        <v>2558.822278380978</v>
       </c>
       <c r="E163">
         <v>3239.6852</v>
@@ -3783,7 +3783,7 @@
         <v>20181108</v>
       </c>
       <c r="D170">
-        <v>2513.325669517238</v>
+        <v>2513.325669517237</v>
       </c>
       <c r="E170">
         <v>3251.7281</v>
@@ -3943,7 +3943,7 @@
         <v>20190103</v>
       </c>
       <c r="D178">
-        <v>3293.021754201751</v>
+        <v>3293.021754201752</v>
       </c>
       <c r="E178">
         <v>2963.0186</v>
@@ -4083,7 +4083,7 @@
         <v>20190228</v>
       </c>
       <c r="D185">
-        <v>1683.674208411762</v>
+        <v>1683.674208411763</v>
       </c>
       <c r="E185">
         <v>3675.2642</v>
@@ -4143,7 +4143,7 @@
         <v>20190321</v>
       </c>
       <c r="D188">
-        <v>1475.032917258159</v>
+        <v>1475.03291725816</v>
       </c>
       <c r="E188">
         <v>3840.2783</v>
@@ -4323,7 +4323,7 @@
         <v>20190530</v>
       </c>
       <c r="D197">
-        <v>1733.249740675397</v>
+        <v>1733.249740675396</v>
       </c>
       <c r="E197">
         <v>3648.8495</v>
@@ -4363,7 +4363,7 @@
         <v>20190613</v>
       </c>
       <c r="D199">
-        <v>1677.56561159117</v>
+        <v>1677.565611591171</v>
       </c>
       <c r="E199">
         <v>3689.5834</v>
@@ -4403,7 +4403,7 @@
         <v>20190627</v>
       </c>
       <c r="D201">
-        <v>1528.643807187544</v>
+        <v>1528.643807187543</v>
       </c>
       <c r="E201">
         <v>3807.5376</v>
@@ -4443,7 +4443,7 @@
         <v>20190711</v>
       </c>
       <c r="D203">
-        <v>1533.227269028571</v>
+        <v>1533.22726902857</v>
       </c>
       <c r="E203">
         <v>3806.1855</v>
@@ -4523,7 +4523,7 @@
         <v>20190808</v>
       </c>
       <c r="D207">
-        <v>1742.315569103154</v>
+        <v>1742.315569103155</v>
       </c>
       <c r="E207">
         <v>3651.3571</v>
@@ -4683,7 +4683,7 @@
         <v>20191010</v>
       </c>
       <c r="D215">
-        <v>1509.882924676814</v>
+        <v>1509.882924676813</v>
       </c>
       <c r="E215">
         <v>3838.4865</v>
@@ -4703,7 +4703,7 @@
         <v>20191017</v>
       </c>
       <c r="D216">
-        <v>1408.828225307247</v>
+        <v>1408.828225307248</v>
       </c>
       <c r="E216">
         <v>3929.386</v>
